--- a/final-project-workload.xlsx
+++ b/final-project-workload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\computergraphicsassignments\Bachelor\final_project2_ray_tracing\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB35F67-7B51-4D9E-9082-3A9C6C0B716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1BCC3-766C-40F3-B8D3-ADFA1869EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workload" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Fill in the percentages with values in range [0-100]</t>
   </si>
@@ -54,9 +54,6 @@
     <t>member 3</t>
   </si>
   <si>
-    <t>&lt;student name&gt;</t>
-  </si>
-  <si>
     <t>basic features</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>{1ec53893-4bf9-4845-bb1e-7f11035496d8}</t>
+  </si>
+  <si>
+    <t>Irtaza Hashmi</t>
+  </si>
+  <si>
+    <t>Amanda Krudde</t>
+  </si>
+  <si>
+    <t>Ioannis Georgiades</t>
   </si>
 </sst>
 </file>
@@ -315,12 +321,6 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,9 +393,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,560 +783,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="3" width="48.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="48.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G15" si="0">SUM(D8:F8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="D11" s="11">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D12" s="11">
+        <v>33</v>
+      </c>
+      <c r="E12" s="11">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>100</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>100</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" ref="G8:G15" si="0">SUM(D8:F8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="16">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="18">
-        <v>3</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>SUM(C8:C15)</f>
         <v>18</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <f>SUMPRODUCT(C8:C15,D8:D15)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="E16" s="20">
         <f>SUMPRODUCT($C8:$C15,E8:E15)/100</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="F16" s="20">
         <f>SUMPRODUCT($C8:$C15,F8:F15)/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23" t="s">
+        <v>6.0149999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19:G28" si="1">SUM(D19:F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="23">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11">
+        <v>50</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>100</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="23">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="23">
+        <v>33</v>
+      </c>
+      <c r="E27" s="11">
+        <v>67</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" ref="G19:G28" si="1">SUM(D19:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="24">
-        <v>3</v>
-      </c>
-      <c r="D28" s="25">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <f>SUM(C19:C28)</f>
         <v>18</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="20">
         <f>SUMPRODUCT($C19:$C28,D19:D28)/100</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="E29" s="20">
         <f>SUMPRODUCT($C19:$C28,E19:E28)/100</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="F29" s="20">
         <f>SUMPRODUCT($C19:$C28,F19:F28)/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28">
         <f>D$16+D29</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
+        <v>8.74</v>
+      </c>
+      <c r="E31" s="28">
         <f>E$16+E29</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="31">
+        <v>9.745000000000001</v>
+      </c>
+      <c r="F31" s="29">
         <f>F$16+F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.0149999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
   </sheetData>
@@ -1349,21 +1355,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/final-project-workload.xlsx
+++ b/final-project-workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1BCC3-766C-40F3-B8D3-ADFA1869EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8898EF93-9B8F-4525-9C4B-BD887FF53995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,13 +1221,13 @@
         <v>1.5</v>
       </c>
       <c r="D25" s="23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
       </c>
       <c r="F25" s="12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D29" s="20">
         <f>SUMPRODUCT($C19:$C28,D19:D28)/100</f>
-        <v>2.7450000000000001</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="E29" s="20">
         <f>SUMPRODUCT($C19:$C28,E19:E28)/100</f>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F29" s="20">
         <f>SUMPRODUCT($C19:$C28,F19:F28)/100</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
       <c r="C31" s="27"/>
       <c r="D31" s="28">
         <f>D$16+D29</f>
-        <v>8.74</v>
+        <v>7.99</v>
       </c>
       <c r="E31" s="28">
         <f>E$16+E29</f>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F31" s="29">
         <f>F$16+F29</f>
-        <v>6.0149999999999997</v>
+        <v>6.7649999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">

--- a/final-project-workload.xlsx
+++ b/final-project-workload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8898EF93-9B8F-4525-9C4B-BD887FF53995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D1BFA-5FC1-4DBF-9F5E-26E34330C970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,13 +839,13 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>4829360</v>
       </c>
       <c r="E5" s="4">
-        <v>2</v>
+        <v>5079934</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>5336724</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
